--- a/Project 2/air-routes-sfo.xlsx
+++ b/Project 2/air-routes-sfo.xlsx
@@ -8,23 +8,36 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tamas\Documents\GitHub\Udactity_Data_foundations_nanodegree\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98FFCBD7-32A5-4D99-9691-5150B828CC9E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C68FAF28-3A05-4060-B9F8-7C45CF68D479}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8370" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SFO routes" sheetId="6" r:id="rId1"/>
-    <sheet name="Airlines" sheetId="9" r:id="rId2"/>
-    <sheet name="Airports" sheetId="8" r:id="rId3"/>
-    <sheet name="Info" sheetId="7" r:id="rId4"/>
+    <sheet name="Pivot" sheetId="10" r:id="rId1"/>
+    <sheet name="SFO routes" sheetId="6" r:id="rId2"/>
+    <sheet name="Airlines" sheetId="9" r:id="rId3"/>
+    <sheet name="Airports" sheetId="8" r:id="rId4"/>
+    <sheet name="Info" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'SFO routes'!$A$1:$C$250</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pivot!$A$3:$B$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'SFO routes'!$A$1:$C$250</definedName>
+    <definedName name="airline_lookup">Airlines!$B:$B,Airlines!$A:$A</definedName>
+    <definedName name="airport_lookup">Airports!$A$1,Airports!$A:$A,Airports!$B:$B</definedName>
   </definedNames>
-  <calcPr calcId="150000"/>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId6"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -34,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4060" uniqueCount="3248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4106" uniqueCount="3252">
   <si>
     <t>ABE</t>
   </si>
@@ -9778,6 +9791,18 @@
   </si>
   <si>
     <t>Virgin America</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Destination</t>
   </si>
 </sst>
 </file>
@@ -9860,7 +9885,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -9878,6 +9903,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -9894,6 +9924,1754 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Stefanovits Tamás" refreshedDate="43450.638599074075" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="250" xr:uid="{85A5A2A6-81FA-494C-87BD-3A8D5D9F2F22}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:C1048576" sheet="SFO routes"/>
+  </cacheSource>
+  <cacheFields count="3">
+    <cacheField name="Airline" numFmtId="0">
+      <sharedItems containsBlank="1" count="43">
+        <s v="AA"/>
+        <s v="AC"/>
+        <s v="AF"/>
+        <s v="AI"/>
+        <s v="AM"/>
+        <s v="AS"/>
+        <s v="AV"/>
+        <s v="AY"/>
+        <s v="AZ"/>
+        <s v="B6"/>
+        <s v="BA"/>
+        <s v="BR"/>
+        <s v="CA"/>
+        <s v="CI"/>
+        <s v="CX"/>
+        <s v="DL"/>
+        <s v="EI"/>
+        <s v="EK"/>
+        <s v="F9"/>
+        <s v="FL"/>
+        <s v="HA"/>
+        <s v="IB"/>
+        <s v="JL"/>
+        <s v="KE"/>
+        <s v="KL"/>
+        <s v="LH"/>
+        <s v="LX"/>
+        <s v="MU"/>
+        <s v="NH"/>
+        <s v="NZ"/>
+        <s v="OZ"/>
+        <s v="PR"/>
+        <s v="SK"/>
+        <s v="SQ"/>
+        <s v="SY"/>
+        <s v="UA"/>
+        <s v="UN"/>
+        <s v="US"/>
+        <s v="VS"/>
+        <s v="VX"/>
+        <s v="WN"/>
+        <s v="WS"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Source" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Destination" numFmtId="0">
+      <sharedItems containsBlank="1" count="105">
+        <s v="CLT"/>
+        <s v="DFW"/>
+        <s v="HKG"/>
+        <s v="HND"/>
+        <s v="JFK"/>
+        <s v="LAX"/>
+        <s v="LHR"/>
+        <s v="MIA"/>
+        <s v="ORD"/>
+        <s v="PDX"/>
+        <s v="PHL"/>
+        <s v="PHX"/>
+        <s v="PSP"/>
+        <s v="PVR"/>
+        <s v="SEA"/>
+        <s v="YEG"/>
+        <s v="YUL"/>
+        <s v="YVR"/>
+        <s v="YYC"/>
+        <s v="YYJ"/>
+        <s v="YYZ"/>
+        <s v="ATL"/>
+        <s v="CDG"/>
+        <s v="HNL"/>
+        <s v="ICN"/>
+        <s v="BJX"/>
+        <s v="GDL"/>
+        <s v="MEX"/>
+        <s v="MLM"/>
+        <s v="SJD"/>
+        <s v="SAL"/>
+        <s v="AUS"/>
+        <s v="BOS"/>
+        <s v="DXB"/>
+        <s v="FLL"/>
+        <s v="LGB"/>
+        <s v="TPE"/>
+        <s v="PEK"/>
+        <s v="PVG"/>
+        <s v="AMS"/>
+        <s v="CVG"/>
+        <s v="DTW"/>
+        <s v="MSP"/>
+        <s v="SLC"/>
+        <s v="DUB"/>
+        <s v="DEN"/>
+        <s v="MDW"/>
+        <s v="MKE"/>
+        <s v="ORF"/>
+        <s v="LAS"/>
+        <s v="FRA"/>
+        <s v="MUC"/>
+        <s v="ZRH"/>
+        <s v="KIX"/>
+        <s v="NRT"/>
+        <s v="AKL"/>
+        <s v="SYD"/>
+        <s v="MNL"/>
+        <s v="CPH"/>
+        <s v="ABQ"/>
+        <s v="ACV"/>
+        <s v="BFL"/>
+        <s v="BOI"/>
+        <s v="BUR"/>
+        <s v="BWI"/>
+        <s v="CEC"/>
+        <s v="CIC"/>
+        <s v="CLE"/>
+        <s v="COS"/>
+        <s v="CUN"/>
+        <s v="DCA"/>
+        <s v="EUG"/>
+        <s v="EWR"/>
+        <s v="FAT"/>
+        <s v="IAD"/>
+        <s v="IAH"/>
+        <s v="IND"/>
+        <s v="KOA"/>
+        <s v="LIH"/>
+        <s v="LMT"/>
+        <s v="MCI"/>
+        <s v="MCO"/>
+        <s v="MFR"/>
+        <s v="MOD"/>
+        <s v="MRY"/>
+        <s v="MSY"/>
+        <s v="OGG"/>
+        <s v="OKC"/>
+        <s v="ONT"/>
+        <s v="OTH"/>
+        <s v="PIT"/>
+        <s v="PSC"/>
+        <s v="RDD"/>
+        <s v="RDM"/>
+        <s v="RDU"/>
+        <s v="RNO"/>
+        <s v="SAN"/>
+        <s v="SAT"/>
+        <s v="SBA"/>
+        <s v="SBP"/>
+        <s v="SMF"/>
+        <s v="SNA"/>
+        <s v="STL"/>
+        <s v="TUS"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="250">
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <s v="SFO"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="SFO"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="SFO"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="SFO"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="SFO"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="SFO"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <s v="SFO"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="SFO"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <s v="SFO"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="SFO"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <s v="SFO"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="SFO"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="SFO"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="SFO"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="SFO"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="SFO"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <s v="SFO"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SFO"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SFO"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SFO"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SFO"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SFO"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SFO"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SFO"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SFO"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SFO"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <s v="SFO"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <s v="SFO"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <s v="SFO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <s v="SFO"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="SFO"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="SFO"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="SFO"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="SFO"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="SFO"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <s v="SFO"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <s v="SFO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <s v="SFO"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="SFO"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <s v="SFO"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <s v="SFO"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <s v="SFO"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <s v="SFO"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <s v="SFO"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <s v="SFO"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <s v="SFO"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="SFO"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="SFO"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="SFO"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <s v="SFO"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="SFO"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <s v="SFO"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <s v="SFO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <s v="SFO"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <s v="SFO"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="SFO"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="SFO"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <s v="SFO"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="SFO"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="SFO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <s v="SFO"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <s v="SFO"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <s v="SFO"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="SFO"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <s v="SFO"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="SFO"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="SFO"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="SFO"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="SFO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="SFO"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <s v="SFO"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <s v="SFO"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <s v="SFO"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <s v="SFO"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="SFO"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <s v="SFO"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <s v="SFO"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="98"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="99"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="100"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="102"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="103"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <s v="SFO"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <s v="SFO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <s v="SFO"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <s v="SFO"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <s v="SFO"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="SFO"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="SFO"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="SFO"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="SFO"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="SFO"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="SFO"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="SFO"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="SFO"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <s v="SFO"/>
+    <x v="101"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="SFO"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <s v="SFO"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <m/>
+    <x v="104"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CB268B0E-6B9B-4F27-B0B1-B9B81442764D}" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B47" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="3">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="44">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item x="33"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="36"/>
+        <item x="37"/>
+        <item x="38"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="41"/>
+        <item x="42"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0">
+      <items count="106">
+        <item x="97"/>
+        <item x="59"/>
+        <item x="60"/>
+        <item x="55"/>
+        <item x="39"/>
+        <item x="21"/>
+        <item x="31"/>
+        <item x="61"/>
+        <item x="25"/>
+        <item x="62"/>
+        <item x="32"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item x="22"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item x="67"/>
+        <item x="0"/>
+        <item x="68"/>
+        <item x="58"/>
+        <item x="69"/>
+        <item x="40"/>
+        <item x="70"/>
+        <item x="45"/>
+        <item x="1"/>
+        <item x="41"/>
+        <item x="44"/>
+        <item x="33"/>
+        <item x="71"/>
+        <item x="72"/>
+        <item x="73"/>
+        <item x="34"/>
+        <item x="50"/>
+        <item x="26"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="23"/>
+        <item x="74"/>
+        <item x="75"/>
+        <item x="24"/>
+        <item x="76"/>
+        <item x="4"/>
+        <item x="53"/>
+        <item x="77"/>
+        <item x="49"/>
+        <item x="5"/>
+        <item x="35"/>
+        <item x="6"/>
+        <item x="78"/>
+        <item x="79"/>
+        <item x="80"/>
+        <item x="81"/>
+        <item x="46"/>
+        <item x="27"/>
+        <item x="82"/>
+        <item x="7"/>
+        <item x="47"/>
+        <item x="28"/>
+        <item x="57"/>
+        <item x="83"/>
+        <item x="84"/>
+        <item x="42"/>
+        <item x="85"/>
+        <item x="51"/>
+        <item x="54"/>
+        <item x="86"/>
+        <item x="87"/>
+        <item x="88"/>
+        <item x="8"/>
+        <item x="48"/>
+        <item x="89"/>
+        <item x="9"/>
+        <item x="37"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="90"/>
+        <item x="91"/>
+        <item x="12"/>
+        <item x="38"/>
+        <item x="13"/>
+        <item x="92"/>
+        <item x="93"/>
+        <item x="94"/>
+        <item x="95"/>
+        <item x="30"/>
+        <item x="96"/>
+        <item x="98"/>
+        <item x="99"/>
+        <item x="14"/>
+        <item x="29"/>
+        <item x="43"/>
+        <item x="100"/>
+        <item x="101"/>
+        <item x="102"/>
+        <item x="56"/>
+        <item x="36"/>
+        <item x="103"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="52"/>
+        <item x="104"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="44">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Count of Destination" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleMedium7" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10158,18 +11936,409 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344852C9-C6BE-4C20-B396-65040BE59473}">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A3:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3251</v>
+      </c>
+      <c r="D3">
+        <f>COUNTA(A4:A45)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>2350</v>
+      </c>
+      <c r="B4" s="13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>2351</v>
+      </c>
+      <c r="B5" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>2352</v>
+      </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>2353</v>
+      </c>
+      <c r="B7" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>2354</v>
+      </c>
+      <c r="B8" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>2355</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>2356</v>
+      </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>2357</v>
+      </c>
+      <c r="B13" s="13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>2358</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>2359</v>
+      </c>
+      <c r="B15" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>2360</v>
+      </c>
+      <c r="B17" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>2361</v>
+      </c>
+      <c r="B18" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>2362</v>
+      </c>
+      <c r="B19" s="13">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>2363</v>
+      </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>2364</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>2365</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>2366</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>2367</v>
+      </c>
+      <c r="B25" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>2368</v>
+      </c>
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>2369</v>
+      </c>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>2370</v>
+      </c>
+      <c r="B28" s="13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>2371</v>
+      </c>
+      <c r="B29" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>2372</v>
+      </c>
+      <c r="B30" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>2373</v>
+      </c>
+      <c r="B31" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B32" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>2374</v>
+      </c>
+      <c r="B33" s="13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>2375</v>
+      </c>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>2376</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>2377</v>
+      </c>
+      <c r="B37" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>2378</v>
+      </c>
+      <c r="B38" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>2379</v>
+      </c>
+      <c r="B39" s="13">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
+        <v>2380</v>
+      </c>
+      <c r="B40" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>2381</v>
+      </c>
+      <c r="B41" s="13">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>2382</v>
+      </c>
+      <c r="B42" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>2383</v>
+      </c>
+      <c r="B43" s="13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>2384</v>
+      </c>
+      <c r="B44" s="13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>2385</v>
+      </c>
+      <c r="B45" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B46" s="13"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B47" s="13">
+        <v>249</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:B47" xr:uid="{5A2049EA-1A32-4642-B1C8-8CCC17D1FBE6}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="19"/>
+        <filter val="249"/>
+        <filter val="88"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" activeCellId="2" sqref="E3 A1:A1048576 C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="7.875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="37.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.375" style="1" customWidth="1"/>
     <col min="7" max="16384" width="12.25" style="1"/>
@@ -10202,6 +12371,10 @@
       <c r="C2" s="3" t="s">
         <v>231</v>
       </c>
+      <c r="E2" s="1">
+        <f>COUNTIF('SFO routes'!C:C,"LHR")</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -12936,11 +15109,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B486"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A420" workbookViewId="0">
+      <selection activeCell="B445" sqref="B445"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -16845,11 +19020,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B1165"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A592" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18" x14ac:dyDescent="0.25"/>
   <cols>
@@ -26186,7 +28363,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A6"/>
   <sheetViews>
